--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Il6-Il6st.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Il6-Il6st.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.6114587735557</v>
+        <v>4.408429333333333</v>
       </c>
       <c r="H2">
-        <v>1.6114587735557</v>
+        <v>13.225288</v>
       </c>
       <c r="I2">
-        <v>0.02399928100625144</v>
+        <v>0.05980478019486075</v>
       </c>
       <c r="J2">
-        <v>0.02399928100625144</v>
+        <v>0.05980478019486075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.1264837578977</v>
+        <v>36.71344366666667</v>
       </c>
       <c r="N2">
-        <v>19.1264837578977</v>
+        <v>110.140331</v>
       </c>
       <c r="O2">
-        <v>0.1225482090922014</v>
+        <v>0.2081992981130139</v>
       </c>
       <c r="P2">
-        <v>0.1225482090922014</v>
+        <v>0.2081992981130138</v>
       </c>
       <c r="Q2">
-        <v>30.82154005893484</v>
+        <v>161.8486219878142</v>
       </c>
       <c r="R2">
-        <v>30.82154005893484</v>
+        <v>1456.637597890328</v>
       </c>
       <c r="S2">
-        <v>0.002941068906816598</v>
+        <v>0.01245131326037308</v>
       </c>
       <c r="T2">
-        <v>0.002941068906816598</v>
+        <v>0.01245131326037308</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.6114587735557</v>
+        <v>4.408429333333333</v>
       </c>
       <c r="H3">
-        <v>1.6114587735557</v>
+        <v>13.225288</v>
       </c>
       <c r="I3">
-        <v>0.02399928100625144</v>
+        <v>0.05980478019486075</v>
       </c>
       <c r="J3">
-        <v>0.02399928100625144</v>
+        <v>0.05980478019486075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.8032821164598</v>
+        <v>88.87708033333332</v>
       </c>
       <c r="N3">
-        <v>88.8032821164598</v>
+        <v>266.631241</v>
       </c>
       <c r="O3">
-        <v>0.5689850430760953</v>
+        <v>0.5040155293450301</v>
       </c>
       <c r="P3">
-        <v>0.5689850430760953</v>
+        <v>0.50401552934503</v>
       </c>
       <c r="Q3">
-        <v>143.1028280871111</v>
+        <v>391.8083280024898</v>
       </c>
       <c r="R3">
-        <v>143.1028280871111</v>
+        <v>3526.274952022407</v>
       </c>
       <c r="S3">
-        <v>0.01365523193713729</v>
+        <v>0.03014253794727592</v>
       </c>
       <c r="T3">
-        <v>0.01365523193713729</v>
+        <v>0.03014253794727591</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.6114587735557</v>
+        <v>4.408429333333333</v>
       </c>
       <c r="H4">
-        <v>1.6114587735557</v>
+        <v>13.225288</v>
       </c>
       <c r="I4">
-        <v>0.02399928100625144</v>
+        <v>0.05980478019486075</v>
       </c>
       <c r="J4">
-        <v>0.02399928100625144</v>
+        <v>0.05980478019486075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.0436210176001</v>
+        <v>14.22727166666667</v>
       </c>
       <c r="N4">
-        <v>13.0436210176001</v>
+        <v>42.681815</v>
       </c>
       <c r="O4">
-        <v>0.08357377215894421</v>
+        <v>0.08068183420648613</v>
       </c>
       <c r="P4">
-        <v>0.08357377215894421</v>
+        <v>0.08068183420648613</v>
       </c>
       <c r="Q4">
-        <v>21.01925752774721</v>
+        <v>62.71992174863556</v>
       </c>
       <c r="R4">
-        <v>21.01925752774721</v>
+        <v>564.47929573772</v>
       </c>
       <c r="S4">
-        <v>0.002005710442794935</v>
+        <v>0.0048251593604371</v>
       </c>
       <c r="T4">
-        <v>0.002005710442794935</v>
+        <v>0.0048251593604371</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.6114587735557</v>
+        <v>4.408429333333333</v>
       </c>
       <c r="H5">
-        <v>1.6114587735557</v>
+        <v>13.225288</v>
       </c>
       <c r="I5">
-        <v>0.02399928100625144</v>
+        <v>0.05980478019486075</v>
       </c>
       <c r="J5">
-        <v>0.02399928100625144</v>
+        <v>0.05980478019486075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>35.0997528102109</v>
+        <v>36.52018433333333</v>
       </c>
       <c r="N5">
-        <v>35.0997528102109</v>
+        <v>109.560553</v>
       </c>
       <c r="O5">
-        <v>0.224892975672759</v>
+        <v>0.20710333833547</v>
       </c>
       <c r="P5">
-        <v>0.224892975672759</v>
+        <v>0.2071033383354699</v>
       </c>
       <c r="Q5">
-        <v>56.56180461565069</v>
+        <v>160.9966518738071</v>
       </c>
       <c r="R5">
-        <v>56.56180461565069</v>
+        <v>1448.969866864264</v>
       </c>
       <c r="S5">
-        <v>0.005397269719502612</v>
+        <v>0.01238576962677466</v>
       </c>
       <c r="T5">
-        <v>0.005397269719502612</v>
+        <v>0.01238576962677466</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.4987589527195</v>
+        <v>56.15338233333333</v>
       </c>
       <c r="H6">
-        <v>55.4987589527195</v>
+        <v>168.460147</v>
       </c>
       <c r="I6">
-        <v>0.8265370070036668</v>
+        <v>0.7617771395926449</v>
       </c>
       <c r="J6">
-        <v>0.8265370070036668</v>
+        <v>0.7617771395926448</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.1264837578977</v>
+        <v>36.71344366666667</v>
       </c>
       <c r="N6">
-        <v>19.1264837578977</v>
+        <v>110.140331</v>
       </c>
       <c r="O6">
-        <v>0.1225482090922014</v>
+        <v>0.2081992981130139</v>
       </c>
       <c r="P6">
-        <v>0.1225482090922014</v>
+        <v>0.2081992981130138</v>
       </c>
       <c r="Q6">
-        <v>1061.496111692669</v>
+        <v>2061.584038987629</v>
       </c>
       <c r="R6">
-        <v>1061.496111692669</v>
+        <v>18554.25635088866</v>
       </c>
       <c r="S6">
-        <v>0.1012906299567277</v>
+        <v>0.158601465781728</v>
       </c>
       <c r="T6">
-        <v>0.1012906299567277</v>
+        <v>0.158601465781728</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>55.4987589527195</v>
+        <v>56.15338233333333</v>
       </c>
       <c r="H7">
-        <v>55.4987589527195</v>
+        <v>168.460147</v>
       </c>
       <c r="I7">
-        <v>0.8265370070036668</v>
+        <v>0.7617771395926449</v>
       </c>
       <c r="J7">
-        <v>0.8265370070036668</v>
+        <v>0.7617771395926448</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>88.8032821164598</v>
+        <v>88.87708033333332</v>
       </c>
       <c r="N7">
-        <v>88.8032821164598</v>
+        <v>266.631241</v>
       </c>
       <c r="O7">
-        <v>0.5689850430760953</v>
+        <v>0.5040155293450301</v>
       </c>
       <c r="P7">
-        <v>0.5689850430760953</v>
+        <v>0.50401552934503</v>
       </c>
       <c r="Q7">
-        <v>4928.471948391749</v>
+        <v>4990.748672628047</v>
       </c>
       <c r="R7">
-        <v>4928.471948391749</v>
+        <v>44916.73805365243</v>
       </c>
       <c r="S7">
-        <v>0.4702871945339683</v>
+        <v>0.3839475082547298</v>
       </c>
       <c r="T7">
-        <v>0.4702871945339683</v>
+        <v>0.3839475082547297</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>55.4987589527195</v>
+        <v>56.15338233333333</v>
       </c>
       <c r="H8">
-        <v>55.4987589527195</v>
+        <v>168.460147</v>
       </c>
       <c r="I8">
-        <v>0.8265370070036668</v>
+        <v>0.7617771395926449</v>
       </c>
       <c r="J8">
-        <v>0.8265370070036668</v>
+        <v>0.7617771395926448</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.0436210176001</v>
+        <v>14.22727166666667</v>
       </c>
       <c r="N8">
-        <v>13.0436210176001</v>
+        <v>42.681815</v>
       </c>
       <c r="O8">
-        <v>0.08357377215894421</v>
+        <v>0.08068183420648613</v>
       </c>
       <c r="P8">
-        <v>0.08357377215894421</v>
+        <v>0.08068183420648613</v>
       </c>
       <c r="Q8">
-        <v>723.9047787264138</v>
+        <v>798.9094254585339</v>
       </c>
       <c r="R8">
-        <v>723.9047787264138</v>
+        <v>7190.184829126805</v>
       </c>
       <c r="S8">
-        <v>0.06907681550426012</v>
+        <v>0.06146157687890502</v>
       </c>
       <c r="T8">
-        <v>0.06907681550426012</v>
+        <v>0.06146157687890501</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>55.4987589527195</v>
+        <v>56.15338233333333</v>
       </c>
       <c r="H9">
-        <v>55.4987589527195</v>
+        <v>168.460147</v>
       </c>
       <c r="I9">
-        <v>0.8265370070036668</v>
+        <v>0.7617771395926449</v>
       </c>
       <c r="J9">
-        <v>0.8265370070036668</v>
+        <v>0.7617771395926448</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.0997528102109</v>
+        <v>36.52018433333333</v>
       </c>
       <c r="N9">
-        <v>35.0997528102109</v>
+        <v>109.560553</v>
       </c>
       <c r="O9">
-        <v>0.224892975672759</v>
+        <v>0.20710333833547</v>
       </c>
       <c r="P9">
-        <v>0.224892975672759</v>
+        <v>0.2071033383354699</v>
       </c>
       <c r="Q9">
-        <v>1947.992720513934</v>
+        <v>2050.731873753477</v>
       </c>
       <c r="R9">
-        <v>1947.992720513934</v>
+        <v>18456.58686378129</v>
       </c>
       <c r="S9">
-        <v>0.1858823670087107</v>
+        <v>0.1577665886772821</v>
       </c>
       <c r="T9">
-        <v>0.1858823670087107</v>
+        <v>0.157766588677282</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.260482316014</v>
+        <v>2.790021666666667</v>
       </c>
       <c r="H10">
-        <v>1.260482316014</v>
+        <v>8.370065</v>
       </c>
       <c r="I10">
-        <v>0.01877222663207338</v>
+        <v>0.03784945156141002</v>
       </c>
       <c r="J10">
-        <v>0.01877222663207338</v>
+        <v>0.03784945156141001</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.1264837578977</v>
+        <v>36.71344366666667</v>
       </c>
       <c r="N10">
-        <v>19.1264837578977</v>
+        <v>110.140331</v>
       </c>
       <c r="O10">
-        <v>0.1225482090922014</v>
+        <v>0.2081992981130139</v>
       </c>
       <c r="P10">
-        <v>0.1225482090922014</v>
+        <v>0.2081992981130138</v>
       </c>
       <c r="Q10">
-        <v>24.10859454435904</v>
+        <v>102.4313032879461</v>
       </c>
       <c r="R10">
-        <v>24.10859454435904</v>
+        <v>921.8817295915151</v>
       </c>
       <c r="S10">
-        <v>0.002300502754433519</v>
+        <v>0.007880229249048083</v>
       </c>
       <c r="T10">
-        <v>0.002300502754433519</v>
+        <v>0.00788022924904808</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.260482316014</v>
+        <v>2.790021666666667</v>
       </c>
       <c r="H11">
-        <v>1.260482316014</v>
+        <v>8.370065</v>
       </c>
       <c r="I11">
-        <v>0.01877222663207338</v>
+        <v>0.03784945156141002</v>
       </c>
       <c r="J11">
-        <v>0.01877222663207338</v>
+        <v>0.03784945156141001</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.8032821164598</v>
+        <v>88.87708033333332</v>
       </c>
       <c r="N11">
-        <v>88.8032821164598</v>
+        <v>266.631241</v>
       </c>
       <c r="O11">
-        <v>0.5689850430760953</v>
+        <v>0.5040155293450301</v>
       </c>
       <c r="P11">
-        <v>0.5689850430760953</v>
+        <v>0.50401552934503</v>
       </c>
       <c r="Q11">
-        <v>111.9349667117999</v>
+        <v>247.9689798000739</v>
       </c>
       <c r="R11">
-        <v>111.9349667117999</v>
+        <v>2231.720818200665</v>
       </c>
       <c r="S11">
-        <v>0.01068111617888449</v>
+        <v>0.01907671136414315</v>
       </c>
       <c r="T11">
-        <v>0.01068111617888449</v>
+        <v>0.01907671136414314</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.260482316014</v>
+        <v>2.790021666666667</v>
       </c>
       <c r="H12">
-        <v>1.260482316014</v>
+        <v>8.370065</v>
       </c>
       <c r="I12">
-        <v>0.01877222663207338</v>
+        <v>0.03784945156141002</v>
       </c>
       <c r="J12">
-        <v>0.01877222663207338</v>
+        <v>0.03784945156141001</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.0436210176001</v>
+        <v>14.22727166666667</v>
       </c>
       <c r="N12">
-        <v>13.0436210176001</v>
+        <v>42.681815</v>
       </c>
       <c r="O12">
-        <v>0.08357377215894421</v>
+        <v>0.08068183420648613</v>
       </c>
       <c r="P12">
-        <v>0.08357377215894421</v>
+        <v>0.08068183420648613</v>
       </c>
       <c r="Q12">
-        <v>16.44125362947346</v>
+        <v>39.69439620755278</v>
       </c>
       <c r="R12">
-        <v>16.44125362947346</v>
+        <v>357.249565867975</v>
       </c>
       <c r="S12">
-        <v>0.001568865791464965</v>
+        <v>0.003053763175684111</v>
       </c>
       <c r="T12">
-        <v>0.001568865791464965</v>
+        <v>0.00305376317568411</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.260482316014</v>
+        <v>2.790021666666667</v>
       </c>
       <c r="H13">
-        <v>1.260482316014</v>
+        <v>8.370065</v>
       </c>
       <c r="I13">
-        <v>0.01877222663207338</v>
+        <v>0.03784945156141002</v>
       </c>
       <c r="J13">
-        <v>0.01877222663207338</v>
+        <v>0.03784945156141001</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.0997528102109</v>
+        <v>36.52018433333333</v>
       </c>
       <c r="N13">
-        <v>35.0997528102109</v>
+        <v>109.560553</v>
       </c>
       <c r="O13">
-        <v>0.224892975672759</v>
+        <v>0.20710333833547</v>
       </c>
       <c r="P13">
-        <v>0.224892975672759</v>
+        <v>0.2071033383354699</v>
       </c>
       <c r="Q13">
-        <v>44.24261771373354</v>
+        <v>101.8921055606606</v>
       </c>
       <c r="R13">
-        <v>44.24261771373354</v>
+        <v>917.0289500459451</v>
       </c>
       <c r="S13">
-        <v>0.004221741907290397</v>
+        <v>0.007838747772534682</v>
       </c>
       <c r="T13">
-        <v>0.004221741907290397</v>
+        <v>0.007838747772534679</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.775427091100349</v>
+        <v>10.36182833333333</v>
       </c>
       <c r="H14">
-        <v>8.775427091100349</v>
+        <v>31.085485</v>
       </c>
       <c r="I14">
-        <v>0.1306914853580084</v>
+        <v>0.1405686286510843</v>
       </c>
       <c r="J14">
-        <v>0.1306914853580084</v>
+        <v>0.1405686286510843</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.1264837578977</v>
+        <v>36.71344366666667</v>
       </c>
       <c r="N14">
-        <v>19.1264837578977</v>
+        <v>110.140331</v>
       </c>
       <c r="O14">
-        <v>0.1225482090922014</v>
+        <v>0.2081992981130139</v>
       </c>
       <c r="P14">
-        <v>0.1225482090922014</v>
+        <v>0.2081992981130138</v>
       </c>
       <c r="Q14">
-        <v>167.8430637265463</v>
+        <v>380.4184007995039</v>
       </c>
       <c r="R14">
-        <v>167.8430637265463</v>
+        <v>3423.765607195535</v>
       </c>
       <c r="S14">
-        <v>0.01601600747422359</v>
+        <v>0.02926628982186464</v>
       </c>
       <c r="T14">
-        <v>0.01601600747422359</v>
+        <v>0.02926628982186463</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.775427091100349</v>
+        <v>10.36182833333333</v>
       </c>
       <c r="H15">
-        <v>8.775427091100349</v>
+        <v>31.085485</v>
       </c>
       <c r="I15">
-        <v>0.1306914853580084</v>
+        <v>0.1405686286510843</v>
       </c>
       <c r="J15">
-        <v>0.1306914853580084</v>
+        <v>0.1405686286510843</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>88.8032821164598</v>
+        <v>88.87708033333332</v>
       </c>
       <c r="N15">
-        <v>88.8032821164598</v>
+        <v>266.631241</v>
       </c>
       <c r="O15">
-        <v>0.5689850430760953</v>
+        <v>0.5040155293450301</v>
       </c>
       <c r="P15">
-        <v>0.5689850430760953</v>
+        <v>0.50401552934503</v>
       </c>
       <c r="Q15">
-        <v>779.2867276634084</v>
+        <v>920.9290491818761</v>
       </c>
       <c r="R15">
-        <v>779.2867276634084</v>
+        <v>8288.361442636884</v>
       </c>
       <c r="S15">
-        <v>0.07436150042610529</v>
+        <v>0.07084877177888123</v>
       </c>
       <c r="T15">
-        <v>0.07436150042610529</v>
+        <v>0.07084877177888119</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.775427091100349</v>
+        <v>10.36182833333333</v>
       </c>
       <c r="H16">
-        <v>8.775427091100349</v>
+        <v>31.085485</v>
       </c>
       <c r="I16">
-        <v>0.1306914853580084</v>
+        <v>0.1405686286510843</v>
       </c>
       <c r="J16">
-        <v>0.1306914853580084</v>
+        <v>0.1405686286510843</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.0436210176001</v>
+        <v>14.22727166666667</v>
       </c>
       <c r="N16">
-        <v>13.0436210176001</v>
+        <v>42.681815</v>
       </c>
       <c r="O16">
-        <v>0.08357377215894421</v>
+        <v>0.08068183420648613</v>
       </c>
       <c r="P16">
-        <v>0.08357377215894421</v>
+        <v>0.08068183420648613</v>
       </c>
       <c r="Q16">
-        <v>114.4633452438938</v>
+        <v>147.4205466616972</v>
       </c>
       <c r="R16">
-        <v>114.4633452438938</v>
+        <v>1326.784919955275</v>
       </c>
       <c r="S16">
-        <v>0.01092238042042419</v>
+        <v>0.0113413347914599</v>
       </c>
       <c r="T16">
-        <v>0.01092238042042419</v>
+        <v>0.0113413347914599</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.775427091100349</v>
+        <v>10.36182833333333</v>
       </c>
       <c r="H17">
-        <v>8.775427091100349</v>
+        <v>31.085485</v>
       </c>
       <c r="I17">
-        <v>0.1306914853580084</v>
+        <v>0.1405686286510843</v>
       </c>
       <c r="J17">
-        <v>0.1306914853580084</v>
+        <v>0.1405686286510843</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>35.0997528102109</v>
+        <v>36.52018433333333</v>
       </c>
       <c r="N17">
-        <v>35.0997528102109</v>
+        <v>109.560553</v>
       </c>
       <c r="O17">
-        <v>0.224892975672759</v>
+        <v>0.20710333833547</v>
       </c>
       <c r="P17">
-        <v>0.224892975672759</v>
+        <v>0.2071033383354699</v>
       </c>
       <c r="Q17">
-        <v>308.0153217016504</v>
+        <v>378.4158807636894</v>
       </c>
       <c r="R17">
-        <v>308.0153217016504</v>
+        <v>3405.742926873205</v>
       </c>
       <c r="S17">
-        <v>0.02939159703725532</v>
+        <v>0.02911223225887855</v>
       </c>
       <c r="T17">
-        <v>0.02939159703725532</v>
+        <v>0.02911223225887854</v>
       </c>
     </row>
   </sheetData>
